--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2252.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2252.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.201889185731545</v>
+        <v>1.128342032432556</v>
       </c>
       <c r="B1">
-        <v>2.3392938947336</v>
+        <v>2.658652544021606</v>
       </c>
       <c r="C1">
-        <v>6.975794953825378</v>
+        <v>5.767167091369629</v>
       </c>
       <c r="D1">
-        <v>2.40079412003419</v>
+        <v>2.089398145675659</v>
       </c>
       <c r="E1">
-        <v>1.177750774472896</v>
+        <v>1.199519753456116</v>
       </c>
     </row>
   </sheetData>
